--- a/xlsx/Scotiabank_output.xlsx
+++ b/xlsx/Scotiabank_output.xlsx
@@ -1,32 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Go XLSX"/>
-  <workbookPr showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorgelin Ortiz\Desktop\ss\pocket-wikix\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="204" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="Page 1" sheetId="1" r:id="rId1" state="visible"/>
-    <sheet name="Page 2" sheetId="2" r:id="rId2" state="visible"/>
-    <sheet name="Page 3" sheetId="3" r:id="rId3" state="visible"/>
-    <sheet name="Page 4" sheetId="4" r:id="rId4" state="visible"/>
-    <sheet name="Page 5" sheetId="5" r:id="rId5" state="visible"/>
-    <sheet name="Page 6" sheetId="6" r:id="rId6" state="visible"/>
-    <sheet name="Page 7" sheetId="7" r:id="rId7" state="visible"/>
-    <sheet name="Page 8" sheetId="8" r:id="rId8" state="visible"/>
-    <sheet name="Page 9" sheetId="9" r:id="rId9" state="visible"/>
-    <sheet name="Page 10" sheetId="10" r:id="rId10" state="visible"/>
-    <sheet name="Page 11" sheetId="11" r:id="rId11" state="visible"/>
+    <sheet name="Page 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Page 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Page 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Page 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Page 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Page 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Page 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Page 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Page 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Page 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Page 11" sheetId="11" r:id="rId11"/>
   </sheets>
-  <definedNames/>
-  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="443">
   <si>
     <t>TARIFA DE PRODUCTOS Y SERVICIOS PERSONALES SCOTIABANK</t>
   </si>
@@ -1365,56 +1368,59 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="00000000"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="10">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1739,35 +1745,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.29547206165704" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.85881502890174" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.214749999999999" customHeight="true">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s"/>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s"/>
-    </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1775,7 +1777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1783,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1791,7 +1793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +1809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1839,13 +1841,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s"/>
-    </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,7 +1854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1861,13 +1862,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
-      <c r="A15" s="1" t="s"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1875,13 +1875,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s"/>
-    </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" ht="14.214749999999999" customHeight="true">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1897,7 +1896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="14.214749999999999" customHeight="true">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="14.214749999999999" customHeight="true">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1929,13 +1928,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
-      <c r="A24" s="1" t="s"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -1943,7 +1941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" ht="14.214749999999999" customHeight="true">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1951,7 +1949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1967,7 +1965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1975,7 +1973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -1983,13 +1981,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" ht="14.214749999999999" customHeight="true">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="1" t="s"/>
-    </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -1997,7 +1994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -2005,7 +2002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" ht="14.214749999999999" customHeight="true">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -2013,7 +2010,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" ht="14.214749999999999" customHeight="true">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -2021,19 +2018,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" ht="14.214749999999999" customHeight="true">
-      <c r="A36" s="1" t="s"/>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" ht="14.214749999999999" customHeight="true">
-      <c r="A37" s="1" t="s"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" ht="14.214749999999999" customHeight="true">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -2041,7 +2036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" ht="14.214749999999999" customHeight="true">
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
@@ -2049,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" ht="14.214749999999999" customHeight="true">
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -2057,7 +2052,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" ht="14.214749999999999" customHeight="true">
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
@@ -2065,7 +2060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" ht="14.214749999999999" customHeight="true">
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -2073,7 +2068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" ht="14.214749999999999" customHeight="true">
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -2081,7 +2076,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" ht="14.214749999999999" customHeight="true">
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -2089,7 +2084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" ht="14.214749999999999" customHeight="true">
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -2097,7 +2092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" ht="14.214749999999999" customHeight="true">
+    <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -2105,7 +2100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" ht="14.214749999999999" customHeight="true">
+    <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
@@ -2113,21 +2108,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" ht="14.214749999999999" customHeight="true">
+    <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" s="2">
         <v>1</v>
       </c>
-      <c r="B48" s="1" t="s"/>
-    </row>
-    <row r="49" ht="14.214749999999999" customHeight="true"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2135,38 +2128,31 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="118.44426782273602" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.73776493256262" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="322.45736994219646" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.700818882466281" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.744894026974949" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.744894026974949" customWidth="1"/>
+    <col min="1" max="1" width="118.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="322.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="71.07374999999999" customHeight="true">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="71.099999999999994" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="1" t="s"/>
-      <c r="C1" s="1" t="s"/>
-      <c r="D1" s="1" t="s"/>
-      <c r="E1" s="1" t="s"/>
-      <c r="F1" s="1" t="s"/>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
-      <c r="A2" s="1" t="s"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>369</v>
       </c>
@@ -2183,8 +2169,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
-      <c r="A3" s="1" t="s"/>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>371</v>
       </c>
@@ -2201,8 +2186,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
-      <c r="A4" s="1" t="s"/>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>376</v>
       </c>
@@ -2212,22 +2196,16 @@
       <c r="D4" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="1" t="s"/>
       <c r="F4" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B5" s="1" t="s"/>
-      <c r="C5" s="1" t="s"/>
-      <c r="D5" s="1" t="s"/>
-      <c r="E5" s="1" t="s"/>
-      <c r="F5" s="1" t="s"/>
-    </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>381</v>
       </c>
@@ -2247,7 +2225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>384</v>
       </c>
@@ -2267,7 +2245,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>386</v>
       </c>
@@ -2287,7 +2265,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>388</v>
       </c>
@@ -2307,7 +2285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>389</v>
       </c>
@@ -2327,7 +2305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>391</v>
       </c>
@@ -2347,20 +2325,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C12" s="1" t="s"/>
-      <c r="D12" s="1" t="s"/>
-      <c r="E12" s="1" t="s"/>
-      <c r="F12" s="1" t="s"/>
-    </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
-      <c r="A13" s="1" t="s"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>394</v>
       </c>
@@ -2377,17 +2350,12 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B14" s="1" t="s"/>
-      <c r="C14" s="1" t="s"/>
-      <c r="D14" s="1" t="s"/>
-      <c r="E14" s="1" t="s"/>
-      <c r="F14" s="1" t="s"/>
-    </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>396</v>
       </c>
@@ -2407,7 +2375,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>397</v>
       </c>
@@ -2427,7 +2395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>399</v>
       </c>
@@ -2447,17 +2415,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B18" s="1" t="s"/>
-      <c r="C18" s="1" t="s"/>
-      <c r="D18" s="1" t="s"/>
-      <c r="E18" s="1" t="s"/>
-      <c r="F18" s="1" t="s"/>
-    </row>
-    <row r="19" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>401</v>
       </c>
@@ -2477,17 +2440,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" ht="14.214749999999999" customHeight="true">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B20" s="1" t="s"/>
-      <c r="C20" s="1" t="s"/>
-      <c r="D20" s="1" t="s"/>
-      <c r="E20" s="1" t="s"/>
-      <c r="F20" s="1" t="s"/>
-    </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>402</v>
       </c>
@@ -2507,7 +2465,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" ht="14.214749999999999" customHeight="true">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>404</v>
       </c>
@@ -2527,7 +2485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>406</v>
       </c>
@@ -2547,17 +2505,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B24" s="1" t="s"/>
-      <c r="C24" s="1" t="s"/>
-      <c r="D24" s="1" t="s"/>
-      <c r="E24" s="1" t="s"/>
-      <c r="F24" s="1" t="s"/>
-    </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>409</v>
       </c>
@@ -2577,73 +2530,54 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" ht="14.214749999999999" customHeight="true">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B26" s="1" t="s"/>
-      <c r="C26" s="1" t="s"/>
-      <c r="D26" s="1" t="s"/>
-      <c r="E26" s="1" t="s"/>
-      <c r="F26" s="1" t="s"/>
-    </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
-      <c r="A27" s="1" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B27" s="1" t="s"/>
-      <c r="C27" s="1" t="s"/>
-      <c r="D27" s="1" t="s"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="E27" s="3">
-        <v>0.0625</v>
-      </c>
-      <c r="F27" s="1" t="s"/>
-    </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B28" s="1" t="s"/>
-      <c r="C28" s="1" t="s"/>
-      <c r="D28" s="1" t="s"/>
       <c r="E28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="1" t="s"/>
-    </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B29" s="1" t="s"/>
-      <c r="C29" s="1" t="s"/>
-      <c r="D29" s="1" t="s"/>
       <c r="E29" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F29" s="1" t="s"/>
-    </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B30" s="1" t="s"/>
-      <c r="C30" s="1" t="s"/>
-      <c r="D30" s="1" t="s"/>
+      <c r="B30" s="5"/>
       <c r="E30" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F30" s="1" t="s"/>
-    </row>
-    <row r="31" ht="28.429499999999997" customHeight="true">
-      <c r="A31" s="1" t="s"/>
+    </row>
+    <row r="31" spans="1:6" ht="28.35" customHeight="1">
       <c r="B31" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D31" s="1" t="s"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="1" t="s">
         <v>370</v>
       </c>
@@ -2651,15 +2585,14 @@
         <v>369</v>
       </c>
     </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
-      <c r="A32" s="1" t="s"/>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D32" s="1" t="s"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="1" t="s">
         <v>373</v>
       </c>
@@ -2667,31 +2600,24 @@
         <v>374</v>
       </c>
     </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
-      <c r="A33" s="1" t="s"/>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D33" s="1" t="s"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F33" s="1" t="s"/>
-    </row>
-    <row r="34" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B34" s="1" t="s"/>
-      <c r="C34" s="1" t="s"/>
-      <c r="D34" s="1" t="s"/>
-      <c r="E34" s="1" t="s"/>
-      <c r="F34" s="1" t="s"/>
-    </row>
-    <row r="35" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>386</v>
       </c>
@@ -2701,7 +2627,6 @@
       <c r="C35" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D35" s="1" t="s"/>
       <c r="E35" s="4">
         <v>0.6</v>
       </c>
@@ -2709,7 +2634,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" ht="14.214749999999999" customHeight="true">
+    <row r="36" spans="1:6" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>388</v>
       </c>
@@ -2719,7 +2644,6 @@
       <c r="C36" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D36" s="1" t="s"/>
       <c r="E36" s="4">
         <v>0.6</v>
       </c>
@@ -2727,7 +2651,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="37" ht="14.214749999999999" customHeight="true">
+    <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>389</v>
       </c>
@@ -2737,7 +2661,6 @@
       <c r="C37" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D37" s="1" t="s"/>
       <c r="E37" s="4">
         <v>0.48</v>
       </c>
@@ -2745,7 +2668,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="38" ht="14.214749999999999" customHeight="true">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>391</v>
       </c>
@@ -2755,7 +2678,6 @@
       <c r="C38" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D38" s="1" t="s"/>
       <c r="E38" s="4">
         <v>0.6</v>
       </c>
@@ -2763,7 +2685,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="39" ht="14.214749999999999" customHeight="true">
+    <row r="39" spans="1:6" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>399</v>
       </c>
@@ -2773,7 +2695,6 @@
       <c r="C39" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D39" s="1" t="s"/>
       <c r="E39" s="4">
         <v>0.6</v>
       </c>
@@ -2781,7 +2702,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="40" ht="14.214749999999999" customHeight="true">
+    <row r="40" spans="1:6" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>422</v>
       </c>
@@ -2791,7 +2712,6 @@
       <c r="C40" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D40" s="1" t="s"/>
       <c r="E40" s="4">
         <v>0.6</v>
       </c>
@@ -2799,7 +2719,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="41" ht="14.214749999999999" customHeight="true">
+    <row r="41" spans="1:6" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>423</v>
       </c>
@@ -2809,7 +2729,6 @@
       <c r="C41" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D41" s="1" t="s"/>
       <c r="E41" s="4">
         <v>0.48</v>
       </c>
@@ -2817,30 +2736,24 @@
         <v>416</v>
       </c>
     </row>
-    <row r="42" ht="14.214749999999999" customHeight="true">
-      <c r="A42" s="1" t="s"/>
-      <c r="B42" s="1" t="s"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1">
       <c r="C42" s="2">
         <v>10</v>
       </c>
-      <c r="D42" s="1" t="s"/>
-      <c r="E42" s="1" t="s"/>
-      <c r="F42" s="1" t="s"/>
-    </row>
-    <row r="43" ht="14.214749999999999" customHeight="true"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2848,29 +2761,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="118.44426782273602" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.73776493256262" customWidth="1"/>
+    <col min="1" max="1" width="118.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="71.07374999999999" customHeight="true">
+    <row r="1" spans="1:2" ht="71.099999999999994" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="1" t="s"/>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>424</v>
       </c>
@@ -2878,15 +2785,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B3" s="3">
-        <v>0.0625</v>
-      </c>
-    </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>412</v>
       </c>
@@ -2894,7 +2801,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>413</v>
       </c>
@@ -2902,7 +2809,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>426</v>
       </c>
@@ -2910,7 +2817,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>414</v>
       </c>
@@ -2918,7 +2825,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>427</v>
       </c>
@@ -2926,7 +2833,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>429</v>
       </c>
@@ -2934,13 +2841,12 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B10" s="1" t="s"/>
-    </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>432</v>
       </c>
@@ -2948,7 +2854,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>434</v>
       </c>
@@ -2956,55 +2862,52 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B13" s="1" t="s"/>
-    </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B14" s="1" t="s"/>
-    </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B15" s="1" t="s"/>
-    </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B16" s="1" t="s"/>
-    </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B17" s="1" t="s"/>
-    </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B18" s="1" t="s"/>
-    </row>
-    <row r="19" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B19" s="1" t="s"/>
-    </row>
-    <row r="20" ht="14.214749999999999" customHeight="true">
-      <c r="A20" s="1" t="s"/>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="B20" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="21" ht="14.214749999999999" customHeight="true"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A13:B13"/>
@@ -3013,10 +2916,9 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3024,29 +2926,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.29547206165704" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.85881502890174" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.214749999999999" customHeight="true">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s"/>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3054,7 +2950,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -3062,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -3070,7 +2966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -3078,7 +2974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -3086,7 +2982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -3094,7 +2990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3102,7 +2998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3110,7 +3006,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3118,7 +3014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -3126,7 +3022,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3134,7 +3030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -3142,7 +3038,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -3150,7 +3046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -3158,13 +3054,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="1" t="s"/>
-    </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
@@ -3172,7 +3067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -3180,13 +3075,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" ht="14.214749999999999" customHeight="true">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="1" t="s"/>
-    </row>
-    <row r="20" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3194,7 +3088,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -3202,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.214749999999999" customHeight="true">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -3210,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>73</v>
       </c>
@@ -3218,7 +3112,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -3226,7 +3120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
@@ -3234,7 +3128,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" ht="14.214749999999999" customHeight="true">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -3242,7 +3136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -3250,7 +3144,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3258,7 +3152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -3266,7 +3160,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -3274,7 +3168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" ht="14.214749999999999" customHeight="true">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -3282,7 +3176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -3290,7 +3184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
@@ -3298,13 +3192,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" ht="14.214749999999999" customHeight="true">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="1" t="s"/>
-    </row>
-    <row r="35" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -3312,7 +3205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" ht="14.214749999999999" customHeight="true">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
@@ -3320,13 +3213,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" ht="14.214749999999999" customHeight="true">
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="1" t="s"/>
-    </row>
-    <row r="38" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -3334,7 +3226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" ht="14.214749999999999" customHeight="true">
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -3342,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="14.214749999999999" customHeight="true">
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -3350,7 +3242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" ht="14.214749999999999" customHeight="true">
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
@@ -3358,7 +3250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" ht="14.214749999999999" customHeight="true">
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -3366,7 +3258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" ht="14.214749999999999" customHeight="true">
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -3374,7 +3266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" ht="14.214749999999999" customHeight="true">
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -3382,7 +3274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" ht="14.214749999999999" customHeight="true">
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -3390,7 +3282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" ht="14.214749999999999" customHeight="true">
+    <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -3398,7 +3290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" ht="14.214749999999999" customHeight="true">
+    <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
@@ -3406,7 +3298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" ht="14.214749999999999" customHeight="true">
+    <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
@@ -3414,13 +3306,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" ht="14.214749999999999" customHeight="true">
+    <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B49" s="1" t="s"/>
-    </row>
-    <row r="50" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
@@ -3428,7 +3319,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" ht="14.214749999999999" customHeight="true">
+    <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
@@ -3436,18 +3327,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" ht="14.214749999999999" customHeight="true">
+    <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" s="2">
         <v>2</v>
       </c>
-      <c r="B52" s="1" t="s"/>
-    </row>
-    <row r="53" ht="14.214749999999999" customHeight="true"/>
+    </row>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3455,29 +3344,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.29547206165704" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.85881502890174" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.214749999999999" customHeight="true">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s"/>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -3493,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -3501,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,7 +3392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -3517,7 +3400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -3525,7 +3408,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3533,7 +3416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3541,7 +3424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3549,7 +3432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -3557,7 +3440,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3565,7 +3448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -3573,7 +3456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -3581,7 +3464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,13 +3472,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="1" t="s"/>
-    </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
@@ -3603,7 +3485,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -3611,13 +3493,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" ht="14.214749999999999" customHeight="true">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="1" t="s"/>
-    </row>
-    <row r="20" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -3625,7 +3506,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
@@ -3633,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.214749999999999" customHeight="true">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>99</v>
       </c>
@@ -3641,7 +3522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -3649,7 +3530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -3657,7 +3538,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -3665,7 +3546,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" ht="14.214749999999999" customHeight="true">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -3673,7 +3554,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
@@ -3681,7 +3562,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
@@ -3689,7 +3570,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
@@ -3697,7 +3578,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
@@ -3705,7 +3586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" ht="14.214749999999999" customHeight="true">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -3713,13 +3594,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
-      <c r="A32" s="1" t="s"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
@@ -3727,13 +3607,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" ht="14.214749999999999" customHeight="true">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="1" t="s"/>
-    </row>
-    <row r="35" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -3741,7 +3620,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" ht="14.214749999999999" customHeight="true">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>112</v>
       </c>
@@ -3749,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="14.214749999999999" customHeight="true">
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -3757,7 +3636,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" ht="14.214749999999999" customHeight="true">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -3765,7 +3644,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" ht="14.214749999999999" customHeight="true">
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -3773,7 +3652,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" ht="14.214749999999999" customHeight="true">
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>115</v>
       </c>
@@ -3781,7 +3660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" ht="14.214749999999999" customHeight="true">
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -3789,7 +3668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" ht="14.214749999999999" customHeight="true">
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -3797,7 +3676,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" ht="14.214749999999999" customHeight="true">
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
@@ -3805,7 +3684,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" ht="14.214749999999999" customHeight="true">
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
@@ -3813,13 +3692,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" ht="14.214749999999999" customHeight="true">
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="1" t="s"/>
-    </row>
-    <row r="46" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
@@ -3827,7 +3705,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" ht="14.214749999999999" customHeight="true">
+    <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
@@ -3835,7 +3713,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" ht="14.214749999999999" customHeight="true">
+    <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>122</v>
       </c>
@@ -3843,7 +3721,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" ht="14.214749999999999" customHeight="true">
+    <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>124</v>
       </c>
@@ -3851,18 +3729,16 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" ht="14.214749999999999" customHeight="true">
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" s="2">
         <v>3</v>
       </c>
-      <c r="B50" s="1" t="s"/>
-    </row>
-    <row r="51" ht="14.214749999999999" customHeight="true"/>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3870,35 +3746,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.29547206165704" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.85881502890174" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.214749999999999" customHeight="true">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="1" t="s"/>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="1" t="s"/>
-    </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -3906,7 +3775,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>130</v>
       </c>
@@ -3914,7 +3783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3922,7 +3791,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3930,7 +3799,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -3938,7 +3807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3946,7 +3815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
@@ -3954,7 +3823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>134</v>
       </c>
@@ -3962,7 +3831,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -3970,7 +3839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -3978,7 +3847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
@@ -3986,7 +3855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>116</v>
       </c>
@@ -3994,13 +3863,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="1" t="s"/>
-    </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>137</v>
       </c>
@@ -4008,7 +3876,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
@@ -4016,7 +3884,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -4024,7 +3892,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" ht="14.214749999999999" customHeight="true">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>142</v>
       </c>
@@ -4032,19 +3900,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" ht="14.214749999999999" customHeight="true">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="1" t="s"/>
-    </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="1" t="s"/>
-    </row>
-    <row r="22" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -4052,7 +3918,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -4060,7 +3926,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -4068,7 +3934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -4076,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="14.214749999999999" customHeight="true">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
@@ -4084,7 +3950,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -4092,7 +3958,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -4100,7 +3966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>115</v>
       </c>
@@ -4108,7 +3974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
@@ -4116,13 +3982,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" ht="14.214749999999999" customHeight="true">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="1" t="s"/>
-    </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
@@ -4130,7 +3995,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>147</v>
       </c>
@@ -4138,7 +4003,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" ht="14.214749999999999" customHeight="true">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>149</v>
       </c>
@@ -4146,7 +4011,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" ht="14.214749999999999" customHeight="true">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>151</v>
       </c>
@@ -4154,13 +4019,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" ht="14.214749999999999" customHeight="true">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B36" s="1" t="s"/>
-    </row>
-    <row r="37" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
@@ -4168,7 +4032,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" ht="14.214749999999999" customHeight="true">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>155</v>
       </c>
@@ -4176,7 +4040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" ht="14.214749999999999" customHeight="true">
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
@@ -4184,7 +4048,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" ht="14.214749999999999" customHeight="true">
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
@@ -4192,7 +4056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" ht="14.214749999999999" customHeight="true">
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
@@ -4200,7 +4064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" ht="14.214749999999999" customHeight="true">
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>159</v>
       </c>
@@ -4208,7 +4072,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" ht="14.214749999999999" customHeight="true">
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>160</v>
       </c>
@@ -4216,13 +4080,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" ht="14.214749999999999" customHeight="true">
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B44" s="1" t="s"/>
-    </row>
-    <row r="45" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>162</v>
       </c>
@@ -4230,24 +4093,21 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" ht="14.214749999999999" customHeight="true">
-      <c r="A46" s="1" t="s"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="B46" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="47" ht="14.214749999999999" customHeight="true">
+    <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" s="2">
         <v>4</v>
       </c>
-      <c r="B47" s="1" t="s"/>
-    </row>
-    <row r="48" ht="14.214749999999999" customHeight="true"/>
+    </row>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4255,29 +4115,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="61.29547206165704" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.85881502890174" customWidth="1"/>
+    <col min="1" max="1" width="61.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.214749999999999" customHeight="true">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s"/>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
@@ -4285,7 +4139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -4293,7 +4147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>156</v>
       </c>
@@ -4301,7 +4155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>167</v>
       </c>
@@ -4309,7 +4163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -4317,7 +4171,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
@@ -4325,13 +4179,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="1" t="s"/>
-    </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -4339,13 +4192,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="1" t="s"/>
-    </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
@@ -4353,13 +4205,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="1" t="s"/>
-    </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>177</v>
       </c>
@@ -4367,7 +4218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>178</v>
       </c>
@@ -4375,7 +4226,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>180</v>
       </c>
@@ -4383,25 +4234,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="1" t="s"/>
-    </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="1" t="s"/>
-    </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="1" t="s"/>
-    </row>
-    <row r="19" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>184</v>
       </c>
@@ -4409,7 +4258,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" ht="14.214749999999999" customHeight="true">
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>186</v>
       </c>
@@ -4417,7 +4266,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>187</v>
       </c>
@@ -4425,7 +4274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" ht="14.214749999999999" customHeight="true">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>188</v>
       </c>
@@ -4433,19 +4282,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="1" t="s"/>
-    </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="1" t="s"/>
-    </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -4453,13 +4300,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" ht="14.214749999999999" customHeight="true">
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="1" t="s"/>
-    </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>194</v>
       </c>
@@ -4467,7 +4313,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>196</v>
       </c>
@@ -4475,13 +4321,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B29" s="1" t="s"/>
-    </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -4489,13 +4335,12 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" ht="14.214749999999999" customHeight="true">
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="1" t="s"/>
-    </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>194</v>
       </c>
@@ -4503,7 +4348,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>196</v>
       </c>
@@ -4511,13 +4356,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" ht="14.214749999999999" customHeight="true">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="1" t="s"/>
-    </row>
-    <row r="35" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>201</v>
       </c>
@@ -4525,7 +4369,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" ht="14.214749999999999" customHeight="true">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>203</v>
       </c>
@@ -4533,7 +4377,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" ht="14.214749999999999" customHeight="true">
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>204</v>
       </c>
@@ -4541,13 +4385,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" ht="14.214749999999999" customHeight="true">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B38" s="1" t="s"/>
-    </row>
-    <row r="39" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>207</v>
       </c>
@@ -4555,7 +4398,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" ht="14.214749999999999" customHeight="true">
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>209</v>
       </c>
@@ -4563,7 +4406,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" ht="14.214749999999999" customHeight="true">
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>211</v>
       </c>
@@ -4571,22 +4414,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" ht="14.214749999999999" customHeight="true">
-      <c r="A42" s="1" t="s"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="B42" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="14.214749999999999" customHeight="true"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A29:B29"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4594,29 +4435,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="70.55973025048169" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.73776493256262" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.214749999999999" customHeight="true">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="1" t="s"/>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>213</v>
       </c>
@@ -4624,7 +4459,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>215</v>
       </c>
@@ -4632,7 +4467,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>217</v>
       </c>
@@ -4640,7 +4475,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>219</v>
       </c>
@@ -4648,7 +4483,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>221</v>
       </c>
@@ -4656,7 +4491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>223</v>
       </c>
@@ -4664,7 +4499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>224</v>
       </c>
@@ -4672,7 +4507,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>226</v>
       </c>
@@ -4680,7 +4515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>227</v>
       </c>
@@ -4688,7 +4523,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>229</v>
       </c>
@@ -4696,13 +4531,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="1" t="s"/>
-    </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>231</v>
       </c>
@@ -4710,7 +4544,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>233</v>
       </c>
@@ -4718,15 +4552,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B15" s="3">
-        <v>0.9999</v>
-      </c>
-    </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>236</v>
       </c>
@@ -4734,7 +4568,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>238</v>
       </c>
@@ -4742,19 +4576,17 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="1" t="s"/>
-    </row>
-    <row r="19" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="1" t="s"/>
-    </row>
-    <row r="20" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>242</v>
       </c>
@@ -4762,13 +4594,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
-      <c r="A21" s="1" t="s"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="22" ht="14.214749999999999" customHeight="true">
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>245</v>
       </c>
@@ -4776,19 +4607,17 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
-      <c r="A23" s="1" t="s"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="B23" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
-      <c r="A24" s="1" t="s"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="B24" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>249</v>
       </c>
@@ -4796,19 +4625,17 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" ht="14.214749999999999" customHeight="true">
-      <c r="A26" s="1" t="s"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
-      <c r="A27" s="1" t="s"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>250</v>
       </c>
@@ -4816,19 +4643,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
-      <c r="A29" s="1" t="s"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="B29" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="1" t="s"/>
-    </row>
-    <row r="31" ht="28.429499999999997" customHeight="true">
+    </row>
+    <row r="31" spans="1:2" ht="28.35" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>254</v>
       </c>
@@ -4836,19 +4661,17 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="1" t="s"/>
-    </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B33" s="1" t="s"/>
-    </row>
-    <row r="34" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>258</v>
       </c>
@@ -4856,7 +4679,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="35" ht="14.214749999999999" customHeight="true">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>260</v>
       </c>
@@ -4864,33 +4687,30 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" ht="14.214749999999999" customHeight="true">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="1" t="s"/>
-    </row>
-    <row r="37" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B37" s="1" t="s"/>
-    </row>
-    <row r="38" ht="14.214749999999999" customHeight="true">
-      <c r="A38" s="2">
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" s="6">
         <v>6</v>
       </c>
-      <c r="B38" s="1" t="s"/>
-    </row>
-    <row r="39" ht="14.214749999999999" customHeight="true"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A38:B38"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4898,24 +4718,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="70.55973025048169" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.73776493256262" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="322.45736994219646" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="322.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="71.07374999999999" customHeight="true">
+    <row r="1" spans="1:3" ht="71.099999999999994" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>264</v>
       </c>
@@ -4926,7 +4741,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>267</v>
       </c>
@@ -4937,378 +4752,360 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
-      <c r="A3" s="1" t="s"/>
-      <c r="B3" s="1" t="s"/>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
-      <c r="A4" s="1" t="s"/>
-      <c r="B4" s="1" t="s"/>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
-      <c r="A5" s="1" t="s"/>
-      <c r="B5" s="1" t="s"/>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
-      <c r="A6" s="1" t="s"/>
-      <c r="B6" s="1" t="s"/>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="1" t="s"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="1" t="s"/>
-      <c r="C8" s="1" t="s"/>
-    </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="1" t="s"/>
-      <c r="C9" s="1" t="s"/>
-    </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B10" s="1" t="s"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="1" t="s"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="1" t="s"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="1" t="s"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="1" t="s"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="1" t="s"/>
-      <c r="C15" s="1" t="s"/>
-    </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="1" t="s"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="1" t="s"/>
-      <c r="C17" s="1" t="s"/>
-    </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B18" s="1" t="s"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" ht="14.214749999999999" customHeight="true">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="1" t="s"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" ht="14.214749999999999" customHeight="true">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="1" t="s"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="1" t="s"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" ht="14.214749999999999" customHeight="true">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="1" t="s"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B23" s="1" t="s"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="1" t="s"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B25" s="1" t="s"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="26" ht="14.214749999999999" customHeight="true">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="1" t="s"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
-      <c r="A27" s="1" t="s"/>
-      <c r="B27" s="1" t="s"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B28" s="1" t="s"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="1" t="s"/>
-      <c r="C29" s="1" t="s"/>
-    </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B30" s="1" t="s"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="31" ht="28.429499999999997" customHeight="true">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" ht="28.35" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B31" s="1" t="s"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="32" ht="14.214749999999999" customHeight="true">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B32" s="1" t="s"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="33" ht="14.214749999999999" customHeight="true">
-      <c r="A33" s="1" t="s"/>
-      <c r="B33" s="1" t="s"/>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="34" ht="14.214749999999999" customHeight="true">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="1" t="s"/>
-      <c r="C34" s="1" t="s"/>
-    </row>
-    <row r="35" ht="14.214749999999999" customHeight="true">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B35" s="1" t="s"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="36" ht="14.214749999999999" customHeight="true">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B36" s="1" t="s"/>
-      <c r="C36" s="1" t="s"/>
-    </row>
-    <row r="37" ht="14.214749999999999" customHeight="true">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="1" t="s"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="38" ht="14.214749999999999" customHeight="true">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B38" s="1" t="s"/>
-      <c r="C38" s="1" t="s"/>
-    </row>
-    <row r="39" ht="14.214749999999999" customHeight="true">
-      <c r="A39" s="1" t="s">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B39" s="1" t="s"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="40" ht="14.214749999999999" customHeight="true">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B40" s="1" t="s"/>
-      <c r="C40" s="1" t="s"/>
-    </row>
-    <row r="41" ht="14.214749999999999" customHeight="true">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B41" s="1" t="s"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="42" ht="14.214749999999999" customHeight="true">
-      <c r="A42" s="1" t="s"/>
-      <c r="B42" s="1" t="s"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="43" ht="14.214749999999999" customHeight="true"/>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5316,182 +5113,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="118.44426782273602" customWidth="1"/>
+    <col min="1" max="1" width="118.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="71.07374999999999" customHeight="true">
+    <row r="1" spans="1:1" ht="71.099999999999994" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    <row r="2" spans="1:1" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
+    <row r="3" spans="1:1" ht="14.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
+    <row r="4" spans="1:1" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
+    <row r="5" spans="1:1" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
+    <row r="6" spans="1:1" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
+    <row r="7" spans="1:1" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
+    <row r="8" spans="1:1" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
+    <row r="9" spans="1:1" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
+    <row r="10" spans="1:1" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
+    <row r="11" spans="1:1" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
+    <row r="12" spans="1:1" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
+    <row r="13" spans="1:1" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
+    <row r="14" spans="1:1" ht="14.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
+    <row r="15" spans="1:1" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
+    <row r="16" spans="1:1" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
+    <row r="17" spans="1:1" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
+    <row r="18" spans="1:1" ht="14.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="19" ht="14.214749999999999" customHeight="true">
+    <row r="19" spans="1:1" ht="14.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="20" ht="14.214749999999999" customHeight="true">
+    <row r="20" spans="1:1" ht="14.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="21" ht="14.214749999999999" customHeight="true">
+    <row r="21" spans="1:1" ht="14.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="22" ht="14.214749999999999" customHeight="true">
+    <row r="22" spans="1:1" ht="14.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" ht="14.214749999999999" customHeight="true">
+    <row r="23" spans="1:1" ht="14.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" ht="14.214749999999999" customHeight="true">
+    <row r="24" spans="1:1" ht="14.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="25" ht="14.214749999999999" customHeight="true">
+    <row r="25" spans="1:1" ht="14.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" ht="14.214749999999999" customHeight="true">
+    <row r="26" spans="1:1" ht="14.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="27" ht="14.214749999999999" customHeight="true">
+    <row r="27" spans="1:1" ht="14.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="28" ht="14.214749999999999" customHeight="true">
+    <row r="28" spans="1:1" ht="14.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="29" ht="14.214749999999999" customHeight="true">
+    <row r="29" spans="1:1" ht="14.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="30" ht="14.214749999999999" customHeight="true">
+    <row r="30" spans="1:1" ht="14.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="31" ht="28.429499999999997" customHeight="true">
+    <row r="31" spans="1:1" ht="28.35" customHeight="1">
       <c r="A31" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="32" ht="14.214749999999999" customHeight="true"/>
+    <row r="32" spans="1:1" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5499,29 +5290,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="118.44426782273602" customWidth="1"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="59.73776493256262" customWidth="1"/>
+    <col min="1" max="1" width="118.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="71.07374999999999" customHeight="true">
+    <row r="1" spans="1:2" ht="71.099999999999994" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="1" t="s"/>
-    </row>
-    <row r="2" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>348</v>
       </c>
@@ -5529,13 +5314,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" ht="14.214749999999999" customHeight="true">
-      <c r="A3" s="1" t="s"/>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="4" ht="14.214749999999999" customHeight="true">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>351</v>
       </c>
@@ -5543,13 +5327,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" ht="14.214749999999999" customHeight="true">
-      <c r="A5" s="1" t="s"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1">
       <c r="B5" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="6" ht="14.214749999999999" customHeight="true">
+    <row r="6" spans="1:2" ht="14.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>352</v>
       </c>
@@ -5557,25 +5340,22 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" ht="14.214749999999999" customHeight="true">
-      <c r="A7" s="1" t="s"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="8" ht="14.214749999999999" customHeight="true">
+    <row r="8" spans="1:2" ht="14.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="1" t="s"/>
-    </row>
-    <row r="9" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B9" s="1" t="s"/>
-    </row>
-    <row r="10" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>357</v>
       </c>
@@ -5583,13 +5363,12 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" ht="14.214749999999999" customHeight="true">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B11" s="1" t="s"/>
-    </row>
-    <row r="12" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>357</v>
       </c>
@@ -5597,25 +5376,22 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" ht="14.214749999999999" customHeight="true">
-      <c r="A13" s="1" t="s"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="14" ht="14.214749999999999" customHeight="true">
-      <c r="A14" s="1" t="s"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="15" ht="14.214749999999999" customHeight="true">
+    <row r="15" spans="1:2" ht="14.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B15" s="1" t="s"/>
-    </row>
-    <row r="16" ht="14.214749999999999" customHeight="true">
+    </row>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>364</v>
       </c>
@@ -5623,7 +5399,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" ht="14.214749999999999" customHeight="true">
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>366</v>
       </c>
@@ -5631,18 +5407,16 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" ht="14.214749999999999" customHeight="true">
-      <c r="A18" s="1" t="s"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="B18" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="19" ht="14.214749999999999" customHeight="true"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
